--- a/三命通會.xlsx
+++ b/三命通會.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A7352-FC7E-4A73-AC41-BDE3C3912722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A78A6AF-EDBB-4DA5-B957-5BB3123CF904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="474">
   <si>
     <t>天干地支</t>
   </si>
@@ -252,9 +252,6 @@
 玉霄寶鑑云：壬申癸酉，金旺之位，不可復旺，旺則傷物，不可見火，見火則自傷。</t>
   </si>
   <si>
-    <t>山下火(丙申)、爐中火(丙寅)、天上火(戊午)</t>
-  </si>
-  <si>
     <t>癸酉</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
   <si>
     <t>閻東叟云：癸酉自旺之金，秉純粹之氣，春夏為性英明，秋冬尤貴，入格，則功業節槩，挺特出倫，帶煞則少年剛勁，四十之後，漸成純德。
 玉霄寶鑑云：壬申癸酉，金旺之位，不可復旺，旺則傷物，不可見火，見火則自傷。</t>
-  </si>
-  <si>
-    <t>山下火(丁酉)</t>
   </si>
   <si>
     <t>庚戌</t>
@@ -802,9 +796,6 @@
 註云：火無西旺，火至秋冬，勢恐不久。</t>
   </si>
   <si>
-    <t>大溪水(甲寅)</t>
-  </si>
-  <si>
     <t>丁卯</t>
   </si>
   <si>
@@ -822,9 +813,6 @@
 註云：火無西旺，火至秋冬，勢恐不久。</t>
   </si>
   <si>
-    <t>大溪水(乙卯)、井泉水(乙酉)</t>
-  </si>
-  <si>
     <t>甲辰</t>
   </si>
   <si>
@@ -842,12 +830,6 @@
   </si>
   <si>
     <t>五行要論云：甲辰為天將之火，含敏速峻烈之氣，入貴格則為特達為文魁，利秋冬，不利春夏。</t>
-  </si>
-  <si>
-    <t>大林木(戊辰)、平地木(戊戌)</t>
-  </si>
-  <si>
-    <t>長流水(壬辰)、大海水(壬戌)、天河水</t>
   </si>
   <si>
     <t>乙巳</t>
@@ -1428,18 +1410,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>山頭火、大溪水&amp;大海水、訥音金(除海中金)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑拓木、路傍土(辛未)、壁上土&amp;屋上土&amp;劍鋒金、覆燈火、霹靂火、天上火、天河水(丁未)、大海水(癸亥)、澗下水、平地木&amp;路傍土、松柏木&amp;桑拓木</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑拓木、路傍土(庚午)、壁上土&amp;屋上土&amp;劍鋒金、覆燈火、霹靂火、天上火、澗下水、平地木&amp;路傍土、松柏木&amp;桑拓木</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>論訥音吉凶</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1596,6 +1566,314 @@
   </si>
   <si>
     <t>凶訥音</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,73</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,74</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>51,111</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>52,112</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,90</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,89</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>43,103</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>44,104</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,81</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,82</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>59,119</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,120</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,121</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,122</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,99</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,77</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,78</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,91</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>32,92</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>69,129</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,130</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,107</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>48,108</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,85</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,86</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>63,123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64,124</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>41,101</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,102</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,115</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56,116</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,93</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,94</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,131</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72,132</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,97</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>38,98</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,135</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>76,136</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>53,113</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,114</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,127</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,128</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,105</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,106</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,83</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,84</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,109</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,110</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,87</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>65,125</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>66,126</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>79,139</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,80</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>57,117</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>58,118</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,95</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,96</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訥音木、井泉水、澗下水、金箔金、砂中金、釵釧金、劍鋒金、壁上土(日時)、屋上土(日時)、沙中土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>長流水、大海水、天河水、白鑞金、霹靂火、天上火&amp;爐中火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆燈火者，金盞啣光，玉臺吐艷，照日月不照之處，明天地未明之時，此火乃人間夜明之火，以木為心，以水為油，遇陰則吉，遇陽則不利，凡日時最忌再見辰巳，地支有衝，恐風吹滅，主夭，或以戌亥子丑為陰，或以自未至亥為陰，五行見木為根本，凡木皆好，更得官星祿貴相扶，干頭化水，尤吉，限運遇相助，主大貴，水以井泉澗下為真油，長流假油，妙選有暗燈添油格，即此理也。大海河水，則不可以為油，遇者主尋常，大凡此火見水，須資木，不喜長生旺氣水。太泛反凶，命值箔金照耀，最為清貴，亦須水木相資，方能顯達，砂中釵釧二金，皆吉。劍鋒一金，謂之燈花拂劍，尤吉，鑞金不宜，五行見土，須防尅破，若壁土可以安身，屋土可以覆庇，日時並見，主福貴。砂土有木，亦主衣食，餘土無用，火愛同類，卻怕風吹，，霹靂為龍神變化之火，必帶風來，此火難存，天上爐中二火相見，最凶，再考妙選，有魁星格，指南格，以甲辰生人，日時遇午未為是，有火土入堂格，以此火怕風，日時遇丙戌丁亥屋上土，則燈在屋中，更得添油尤貴。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大溪水(日時)、大海水(日時)、井泉水、澗下水、長流水(日時)、桑拓木(癸丑)、松柏木、楊柳木、霹靂火(己丑)、壁上土、城頭土、劍鋒金(壬申)&amp;訥音水、海中金(乙丑)、釵釧金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大溪水(日時)、大海水(日時)、井泉水、澗下水、長流水(日時)、桑拓木(癸丑)、松柏木、楊柳木、霹靂火(戊子)、壁上土、城頭土、劍鋒金(癸酉)&amp;訥音水、海中金(乙丑)、釵釧金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍鋒金者，白帝司權，剛由百鍊，紅光射於斗牛，白刃凝於霜雪，此金造化，非水不能生。大溪海水，日時相逢，為上格。井泉澗下，有霹靂助，獲得乙卯之雷，方好，若無雷霹，亦金白水清格也。秋生更吉，日時遇長流，在壬辰，為寶劍化為青龍。癸巳亦得，此劍不能通變，然癸丑為劍氣衝斗，最吉。松柏楊柳亦吉，但多聚散，大林平地，嫌有土制，主勞苦。火見神龍，陰陽交遇，如壬申逢己丑，癸酉逢戊子，方為上格。遇天上爐中二火，無水救，則夭。諸土見則不吉，以其埋沒，只壁上城頭，有磨鋒淬礪之用，此二土皆可，金喜同類，如壬申見壬申，癸酉見癸酉。有水制之，是謂盤根錯節，所以別利器也。無水主帶疾，海砂白鑞，此三金，丙乙丑獨吉。釵釧成器，相見亦宜。若柱有未成之金，無加於劍，故最忌之。見則性蒙猖狂，戌則金混雜，時中卻宜火勝，大抵劍鋒乃金之最利者，只宜水潤，不宜火刑，如見寅巳三刑全者大凶。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山下火(丙申)、爐中火、天上火、大林木、平地木、訥音土、白鑞金(柱)、金箔金(柱)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山下火(丁酉)、爐中火、天上火、大林木、平地木、訥音土、白鑞金(柱)、金箔金(柱)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山頭火、霹靂火&amp;天上火、大溪水&amp;大海水、訥音金(除海中金乙丑)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山頭火、、霹靂火&amp;天上火、大溪水&amp;大海水、訥音金(除海中金乙丑)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑拓木、路傍土(庚午)、壁上土&amp;屋上土&amp;劍鋒金、覆燈火、霹靂火、天上火、澗下水、平地木&amp;路傍土、松柏木&amp;桑拓木(癸丑)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑拓木、路傍土(辛未)、壁上土&amp;屋上土&amp;劍鋒金、覆燈火、霹靂火、天上火、天河水(丁未)、大海水(癸亥)、澗下水、平地木&amp;路傍土、松柏木&amp;桑拓木(癸丑)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平地木、松柏木、楊柳木海中金(資木)、砂中金(資木)、白鑞金(資木)、城頭土、屋上土、壁上土、霹靂火&amp;木&amp;大海水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大溪水(乙卯)、井泉水(乙酉)、無木、無木更遇金、劍鋒金、天上水(無木)、井泉水、澗下水、大溪水、長流水、霹靂火&amp;大海水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大溪水(甲寅)、平地木、海中金(資木)、砂中金(資木)、白鑞金(資木)、城頭土、屋上土、壁上土、天上水、霹靂火&amp;木&amp;大海水、山下火(丁酉)、大驛土(己酉)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爐中火者，天地為爐，陰陽為炭，騰光輝於宇宙，成陶冶於乾坤。此火炎上，喜得木生，惟平地之木為上。以丙寅見己亥，謂之天乙貴，見戊戌謂之歸庫，故吉，丁卯次之，然丙寅火自生，無木庶幾，丁卯火自敗，若無木則凶。且此火以金為用，更得金來，方應化機，但丁卯無木而更遇金，主勞苦之命。夫寅見木多，火炎而無水制主夭。卯見三四木不妨。如庚寅辛卯，就位相生，壬午癸未，化為真火，寅見之，多主凶暴，或疾夭。若天地元有水制，亦主中壽。丁卯無妨，此火雖喜得金為財，內劍金，寅見之稍可。丁卯火既自敗，又到申酉而死絕，如何能尅，非貧即夭。海中砂鑞諸金，須資木生，方喜見之。釵箔無用，見土，須先有金與木，卻喜土以宿之，不至太躁。如城頭屋壁，皆成器之土，方好。見水，命中先愛木，不然，火多喜逢之。天上清水，寅命遇之為吉。卯中無木則嫌，大海。丙寅見壬戌為福庫，見癸亥為官星帶合，半凶半吉。井澗溪流皆為凶，有木，不在此論。火見同類，若日月上衰敗則吉，霹靂火本自無益，若得木生，更日時有海水，則宜。無木遇水凶。天上火，須有屋土遮之，燈火巽風，又為鼓舞亡神，須兼造化斷。如丙寅丁酉己酉丙寅，火為無氣，不失大貴，如丙寅甲午己巳丙寅，則漂泛不安。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>木多無水制、松柏木、楊柳木、井泉水、澗下水、大溪水(乙卯)、長流水、霹靂火&amp;大海水、砂中金(甲午)、大林木(己巳)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1693,7 +1971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1710,6 +1988,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1928,10 +2207,10 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1949,7 +2228,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1961,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1976,18 +2255,18 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="165">
-      <c r="A2" s="9">
-        <v>73</v>
+      <c r="A2" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2014,18 +2293,18 @@
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="165">
-      <c r="A3" s="9">
-        <v>74</v>
+      <c r="A3" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -2052,18 +2331,18 @@
         <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45">
-      <c r="A4" s="9">
-        <v>51</v>
+      <c r="A4" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -2092,8 +2371,8 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="75">
-      <c r="A5" s="9">
-        <v>52</v>
+      <c r="A5" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -2124,8 +2403,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="75">
-      <c r="A6" s="9">
-        <v>89</v>
+      <c r="A6" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -2157,8 +2436,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="75">
-      <c r="A7" s="9">
-        <v>90</v>
+      <c r="A7" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>44</v>
@@ -2190,8 +2469,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="120">
-      <c r="A8" s="9">
-        <v>43</v>
+      <c r="A8" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -2203,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>53</v>
@@ -2218,18 +2497,18 @@
         <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="90">
-      <c r="A9" s="9">
-        <v>44</v>
+      <c r="A9" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>57</v>
@@ -2241,7 +2520,7 @@
         <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>53</v>
@@ -2256,18 +2535,18 @@
         <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60">
-      <c r="A10" s="9">
-        <v>81</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="90">
+      <c r="A10" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>62</v>
@@ -2293,23 +2572,28 @@
       <c r="I10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>460</v>
+      </c>
       <c r="K10" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="90">
+      <c r="A11" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75">
-      <c r="A11" s="9">
-        <v>82</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>65</v>
@@ -2318,1619 +2602,1646 @@
         <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45">
+      <c r="A12" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45">
-      <c r="A12" s="9">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="45">
-      <c r="A13" s="9">
-        <v>60</v>
+      <c r="A13" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="9">
-        <v>61</v>
+      <c r="A14" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="45">
+      <c r="A15" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="45">
-      <c r="A15" s="9">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" ht="45">
+      <c r="A16" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="45">
-      <c r="A16" s="9">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" ht="45">
+      <c r="A17" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="45">
-      <c r="A17" s="9">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" ht="105">
+      <c r="A18" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" ht="105">
-      <c r="A18" s="9">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="105">
+      <c r="A19" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="105">
-      <c r="A19" s="9">
-        <v>78</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="J19" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="75">
+      <c r="A20" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="75">
-      <c r="A20" s="9">
-        <v>91</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60">
-      <c r="A21" s="9">
-        <v>92</v>
+      <c r="A21" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45">
-      <c r="A22" s="9">
-        <v>69</v>
+      <c r="A22" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="45">
-      <c r="A23" s="9">
-        <v>70</v>
+      <c r="A23" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="45">
-      <c r="A24" s="9">
-        <v>47</v>
+      <c r="A24" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" ht="45">
+      <c r="A25" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="45">
-      <c r="A25" s="9">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:12" ht="90">
+      <c r="A26" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="90">
-      <c r="A26" s="9">
-        <v>85</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="J26" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="90">
+      <c r="A27" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="90">
-      <c r="A27" s="9">
-        <v>86</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30">
+      <c r="A28" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30">
-      <c r="A28" s="9">
-        <v>63</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="45">
-      <c r="A29" s="9">
-        <v>64</v>
+      <c r="A29" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="45">
+      <c r="A30" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" ht="45">
-      <c r="A30" s="9">
-        <v>41</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45">
+      <c r="A31" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="45">
-      <c r="A31" s="9">
-        <v>42</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30">
+      <c r="A32" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="30">
-      <c r="A32" s="9">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="30">
+      <c r="A33" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="C33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="30">
-      <c r="A33" s="9">
-        <v>56</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="H33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="30">
+      <c r="A34" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="30">
-      <c r="A34" s="9">
-        <v>93</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="45">
+      <c r="A35" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="45">
-      <c r="A35" s="9">
-        <v>94</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="45">
+      <c r="A36" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="45">
-      <c r="A36" s="9">
-        <v>71</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="45">
-      <c r="A37" s="9">
-        <v>72</v>
+      <c r="A37" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="30">
-      <c r="A38" s="9">
-        <v>37</v>
+      <c r="A38" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="30">
+      <c r="A39" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="30">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:12" ht="120">
+      <c r="A40" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="60">
-      <c r="A40" s="9">
-        <v>75</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="J40" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="120">
+      <c r="A41" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="75">
-      <c r="A41" s="9">
-        <v>76</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="105">
+      <c r="A42" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30">
-      <c r="A42" s="9">
-        <v>53</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="105">
+      <c r="A43" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30">
-      <c r="A43" s="9">
-        <v>54</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30">
+      <c r="A44" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="30">
-      <c r="A44" s="9">
-        <v>67</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="30">
-      <c r="A45" s="9">
-        <v>68</v>
+      <c r="A45" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="30">
-      <c r="A46" s="9">
-        <v>45</v>
+      <c r="A46" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30">
-      <c r="A47" s="9">
-        <v>46</v>
+      <c r="A47" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="90">
+      <c r="A48" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="90">
-      <c r="A48" s="9">
-        <v>83</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="90">
+      <c r="A49" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="90">
-      <c r="A49" s="9">
-        <v>84</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="60">
+      <c r="A50" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="60">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="I50" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:12" ht="60">
+      <c r="A51" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="60">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="120">
+      <c r="A52" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" ht="120">
-      <c r="A52" s="9">
-        <v>87</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="I52" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="105">
+      <c r="A53" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="105">
+      <c r="A54" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="105">
-      <c r="A53" s="9">
-        <v>88</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J53" s="2" t="s">
+      <c r="H54" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="105">
+      <c r="A55" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="105">
-      <c r="A54" s="9">
-        <v>65</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="H55" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="135">
+      <c r="A56" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="105">
-      <c r="A55" s="9">
-        <v>66</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="135">
-      <c r="A56" s="9">
-        <v>79</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="135">
+      <c r="A57" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="135">
-      <c r="A57" s="9">
-        <v>80</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="H57" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="30">
+      <c r="A58" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="C58" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="30">
-      <c r="A58" s="9">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:12" ht="30">
-      <c r="A59" s="9">
-        <v>58</v>
+      <c r="A59" s="10" t="s">
+        <v>454</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:12" ht="60">
+      <c r="A60" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="C60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="H60" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="60">
-      <c r="A60" s="9">
-        <v>95</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="I60" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" ht="30">
+      <c r="A61" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" ht="30">
-      <c r="A61" s="9">
-        <v>96</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">

--- a/三命通會.xlsx
+++ b/三命通會.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A78A6AF-EDBB-4DA5-B957-5BB3123CF904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09E5D5-231E-4E3C-9E22-78C853DAE0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,246 +1569,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>13,73</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,74</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>51,111</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>52,112</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,90</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29,89</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>43,103</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>44,104</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,81</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,82</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>59,119</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,120</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,121</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>62,122</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,99</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,77</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,78</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,91</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>32,92</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>69,129</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,130</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,107</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>48,108</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,85</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,86</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>63,123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>64,124</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>41,101</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,102</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,115</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>56,116</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,93</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,94</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>71,131</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>72,132</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,97</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>38,98</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,135</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>76,136</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>53,113</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>54,114</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,127</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,128</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>45,105</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,106</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,83</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,84</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>49,109</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,110</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,87</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,88</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>65,125</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>66,126</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>79,139</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,80</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>57,117</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>58,118</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,95</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36,96</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>訥音木、井泉水、澗下水、金箔金、砂中金、釵釧金、劍鋒金、壁上土(日時)、屋上土(日時)、沙中土</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1874,6 +1634,246 @@
   </si>
   <si>
     <t>木多無水制、松柏木、楊柳木、井泉水、澗下水、大溪水(乙卯)、長流水、霹靂火&amp;大海水、砂中金(甲午)、大林木(己巳)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>73</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>74</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>77</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>72</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2207,10 +2207,10 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L41" sqref="L41"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="2" spans="1:12" ht="165">
       <c r="A2" s="10" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="3" spans="1:12" ht="165">
       <c r="A3" s="10" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="4" spans="1:12" ht="45">
       <c r="A4" s="10" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="5" spans="1:12" ht="75">
       <c r="A5" s="10" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="6" spans="1:12" ht="75">
       <c r="A6" s="10" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="10" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>44</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="8" spans="1:12" ht="120">
       <c r="A8" s="10" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="9" spans="1:12" ht="90">
       <c r="A9" s="10" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>57</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="10" spans="1:12" ht="90">
       <c r="A10" s="10" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>62</v>
@@ -2573,18 +2573,18 @@
         <v>69</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="90">
       <c r="A11" s="10" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>70</v>
@@ -2611,18 +2611,18 @@
         <v>74</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" s="10" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>75</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="13" spans="1:12" ht="45">
       <c r="A13" s="10" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>80</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="10" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>83</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="15" spans="1:12" ht="45">
       <c r="A15" s="10" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>90</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="16" spans="1:12" ht="45">
       <c r="A16" s="10" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>94</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="17" spans="1:12" ht="45">
       <c r="A17" s="10" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>101</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="18" spans="1:12" ht="105">
       <c r="A18" s="10" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>105</v>
@@ -2817,10 +2817,10 @@
         <v>112</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>113</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="19" spans="1:12" ht="105">
       <c r="A19" s="10" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>114</v>
@@ -2855,10 +2855,10 @@
         <v>118</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>113</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="20" spans="1:12" ht="75">
       <c r="A20" s="10" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>119</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="10" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>127</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="22" spans="1:12" ht="45">
       <c r="A22" s="10" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>131</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="23" spans="1:12" ht="45">
       <c r="A23" s="10" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>137</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="24" spans="1:12" ht="45">
       <c r="A24" s="10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>140</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="25" spans="1:12" ht="45">
       <c r="A25" s="10" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>147</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="26" spans="1:12" ht="90">
       <c r="A26" s="10" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>154</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="27" spans="1:12" ht="90">
       <c r="A27" s="10" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>162</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="28" spans="1:12" ht="30">
       <c r="A28" s="10" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>168</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="29" spans="1:12" ht="45">
       <c r="A29" s="10" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>173</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="30" spans="1:12" ht="45">
       <c r="A30" s="10" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>177</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="31" spans="1:12" ht="45">
       <c r="A31" s="10" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>185</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="10" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>189</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="10" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>197</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="A34" s="10" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>201</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="35" spans="1:12" ht="45">
       <c r="A35" s="10" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>209</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="36" spans="1:12" ht="45">
       <c r="A36" s="10" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>214</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="37" spans="1:12" ht="45">
       <c r="A37" s="10" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>221</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="38" spans="1:12" ht="30">
       <c r="A38" s="10" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>224</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="39" spans="1:12" ht="30">
       <c r="A39" s="10" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>231</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="40" spans="1:12" ht="120">
       <c r="A40" s="10" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>237</v>
@@ -3522,18 +3522,18 @@
         <v>242</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="120">
       <c r="A41" s="10" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>243</v>
@@ -3560,18 +3560,18 @@
         <v>247</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="105">
       <c r="A42" s="10" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>248</v>
@@ -3598,18 +3598,18 @@
         <v>253</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="105">
       <c r="A43" s="10" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>254</v>
@@ -3636,18 +3636,18 @@
         <v>257</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30">
       <c r="A44" s="10" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>258</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="45" spans="1:12" ht="30">
       <c r="A45" s="10" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>263</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="46" spans="1:12" ht="30">
       <c r="A46" s="10" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>266</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="47" spans="1:12" ht="30">
       <c r="A47" s="10" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>274</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="48" spans="1:12" ht="90">
       <c r="A48" s="10" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>279</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="49" spans="1:12" ht="90">
       <c r="A49" s="10" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>286</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="50" spans="1:12" ht="60">
       <c r="A50" s="10" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>290</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="51" spans="1:12" ht="60">
       <c r="A51" s="10" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>298</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="52" spans="1:12" ht="120">
       <c r="A52" s="10" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>302</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="53" spans="1:12" ht="105">
       <c r="A53" s="10" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>310</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="54" spans="1:12" ht="105">
       <c r="A54" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>315</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="56" spans="1:12" ht="135">
       <c r="A56" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>322</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="57" spans="1:12" ht="135">
       <c r="A57" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>329</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>331</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="10" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>337</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="60" spans="1:12" ht="60">
       <c r="A60" s="10" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>344</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="61" spans="1:12" ht="30">
       <c r="A61" s="10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>351</v>

--- a/三命通會.xlsx
+++ b/三命通會.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09E5D5-231E-4E3C-9E22-78C853DAE0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1435C2F2-9C1A-4CCF-95CB-A80923214816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1645,14 +1645,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>51</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>90</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1661,14 +1653,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>43</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>44</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>81</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1677,14 +1661,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>59</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>61</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1765,14 +1741,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>58</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>80</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1829,14 +1797,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>54</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>76</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1869,11 +1829,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>56</t>
+    <t>103</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>55</t>
+    <t>104</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2207,10 +2207,10 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="4" spans="1:12" ht="45">
       <c r="A4" s="10" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="5" spans="1:12" ht="75">
       <c r="A5" s="10" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="6" spans="1:12" ht="75">
       <c r="A6" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>44</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="8" spans="1:12" ht="120">
       <c r="A8" s="10" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="9" spans="1:12" ht="90">
       <c r="A9" s="10" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>57</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="10" spans="1:12" ht="90">
       <c r="A10" s="10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>62</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="11" spans="1:12" ht="90">
       <c r="A11" s="10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>70</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" s="10" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>75</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="13" spans="1:12" ht="45">
       <c r="A13" s="10" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>80</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>83</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="15" spans="1:12" ht="45">
       <c r="A15" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>90</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="16" spans="1:12" ht="45">
       <c r="A16" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>94</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="17" spans="1:12" ht="45">
       <c r="A17" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>101</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="18" spans="1:12" ht="105">
       <c r="A18" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>105</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="19" spans="1:12" ht="105">
       <c r="A19" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>114</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="20" spans="1:12" ht="75">
       <c r="A20" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>119</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>127</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="22" spans="1:12" ht="45">
       <c r="A22" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>131</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="23" spans="1:12" ht="45">
       <c r="A23" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>137</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="24" spans="1:12" ht="45">
       <c r="A24" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>140</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="25" spans="1:12" ht="45">
       <c r="A25" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>147</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="26" spans="1:12" ht="90">
       <c r="A26" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>154</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="27" spans="1:12" ht="90">
       <c r="A27" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>162</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="28" spans="1:12" ht="30">
       <c r="A28" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>168</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="29" spans="1:12" ht="45">
       <c r="A29" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>173</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="30" spans="1:12" ht="45">
       <c r="A30" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>177</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="31" spans="1:12" ht="45">
       <c r="A31" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>185</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="10" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>189</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>197</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="A34" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>201</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="35" spans="1:12" ht="45">
       <c r="A35" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>209</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="36" spans="1:12" ht="45">
       <c r="A36" s="10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>214</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="37" spans="1:12" ht="45">
       <c r="A37" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>221</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="38" spans="1:12" ht="30">
       <c r="A38" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>224</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="39" spans="1:12" ht="30">
       <c r="A39" s="10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>231</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="40" spans="1:12" ht="120">
       <c r="A40" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>237</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="41" spans="1:12" ht="120">
       <c r="A41" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>243</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="42" spans="1:12" ht="105">
       <c r="A42" s="10" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>248</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="43" spans="1:12" ht="105">
       <c r="A43" s="10" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>254</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="44" spans="1:12" ht="30">
       <c r="A44" s="10" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>258</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="45" spans="1:12" ht="30">
       <c r="A45" s="10" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>263</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="46" spans="1:12" ht="30">
       <c r="A46" s="10" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>266</v>
@@ -3732,7 +3732,7 @@
     </row>
     <row r="47" spans="1:12" ht="30">
       <c r="A47" s="10" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>274</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="48" spans="1:12" ht="90">
       <c r="A48" s="10" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>279</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="49" spans="1:12" ht="90">
       <c r="A49" s="10" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>286</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="50" spans="1:12" ht="60">
       <c r="A50" s="10" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>290</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="51" spans="1:12" ht="60">
       <c r="A51" s="10" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>298</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="52" spans="1:12" ht="120">
       <c r="A52" s="10" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>302</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="53" spans="1:12" ht="105">
       <c r="A53" s="10" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>310</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="54" spans="1:12" ht="105">
       <c r="A54" s="10" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>315</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="55" spans="1:12" ht="105">
       <c r="A55" s="10" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>320</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="56" spans="1:12" ht="135">
       <c r="A56" s="10" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>322</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="57" spans="1:12" ht="135">
       <c r="A57" s="10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>329</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="10" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>331</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="10" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>337</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="60" spans="1:12" ht="60">
       <c r="A60" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>344</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="61" spans="1:12" ht="30">
       <c r="A61" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>351</v>

--- a/三命通會.xlsx
+++ b/三命通會.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1435C2F2-9C1A-4CCF-95CB-A80923214816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F429457E-E77E-4761-89AB-83F3C5AEFA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="496">
   <si>
     <t>天干地支</t>
   </si>
@@ -772,9 +772,6 @@
     <t>燭神經云：丑胎養之火，其氣漸隆，若遇丙寅戊午之火助之，可成濟物之功。</t>
   </si>
   <si>
-    <t>爐中火(丙寅)、天上火(戊午)</t>
-  </si>
-  <si>
     <t>丙寅</t>
   </si>
   <si>
@@ -841,9 +838,6 @@
     <t>臨官之火，水不能剋，蓋水絕於巳，得水濟之，則為純粹，若得二三火助之亦佳。</t>
   </si>
   <si>
-    <t>五行要論云：乙巳火含純陽巽發之氣，光輝充實，春冬向吉，夏秋向凶。</t>
-  </si>
-  <si>
     <t>戊午</t>
   </si>
   <si>
@@ -885,15 +879,9 @@
     <t>白茅野燒，喜秋冬及木，平頭聾啞大敗破字懸針。</t>
   </si>
   <si>
-    <t>自病之火，其氣極微，假木相助，其氣方生，忌甲申乙酉甲寅乙卯之水。</t>
-  </si>
-  <si>
     <t>閻東叟云：丙申病火，以木為文明之德，以水為曠達之性，以土為福慧之基，惟金為暴虐，縱有吉辰，革為不和之氣。</t>
   </si>
   <si>
-    <t>井泉水、大溪水</t>
-  </si>
-  <si>
     <t>丁酉</t>
   </si>
   <si>
@@ -901,9 +889,6 @@
   </si>
   <si>
     <t>鬼神之靈響火之無形者，喜辰戌丑未，天乙喜神平頭破字聾啞大敗。</t>
-  </si>
-  <si>
-    <t>自死之火，其氣極微，假木相助，其氣方生，忌甲申乙酉甲寅乙卯之水。</t>
   </si>
   <si>
     <t>五行要論云：丁酉火自死，含韜晦寂靜之氣，外和內剛，貴格承之，類為有道君子，自然之德行。</t>
@@ -938,9 +923,6 @@
   </si>
   <si>
     <t>伏明之火，其氣湮鬱而不發藉，己亥辛卯己巳壬午癸未木生之則精神旺相，癸亥丙午水，有之則不吉。</t>
-  </si>
-  <si>
-    <t>閻東叟云：乙亥火自絕，含明敏自靜之氣，葆光晦跡，寂然無形，禀之得數者，為妙道高人，吉德君子。</t>
   </si>
   <si>
     <t>庚子</t>
@@ -1876,12 +1858,253 @@
     <t>118</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>閻東叟云：乙亥火自絕，含明敏自靜之氣，葆光晦跡，寂然無形，禀之得數者，為妙道高人，吉德君子。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>閻東叟云：戊午自旺火，含離明炎上之氣，無情治物，動違於眾，秋冬得之，濟以水土旺氣，則豁達高明，福力堅壯，春夏乘之以金木，雖勝光迅速，命非久常。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行要論云：乙巳火含純陽巽發之氣，光輝充實，春冬向吉，夏秋向凶。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行要論云：己未衰火，含餘藏寶之氣，春夏之月，運入沉潛之鄉，則明達峻敏，福慶深遠，夏得之非和氣也，秋得之則先吉後凶。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>旺之火，居離明之方，旺相之地，其氣極盛，他水無傷，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忌丙午丁未天水之水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>偏庫之火，居離明之方，旺相之地，其氣極盛，他水無傷，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忌丙午丁未天水之水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大林木、松柏木、石榴木、釵釧金、金箔金、澗下水(丙子)、大溪水、井泉水、覆燈火、沙中土、路傍土、城頭土、屋上土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天上火者，溫暖山河，輝光宇宙，陽德麗天之照，陰精離海之明，戊午為太陽則剛，己未為太陰則柔，或以為夏日則剛，夜日則溫，誣也。俱要戌亥為天門，卯酉為出入之門，東南為行陸之地，則吉。此火見木，謂之震折，要日時有風與水。方得，大林木有辰巳，松柏石榴有卯酉，故惟此三木主貴。午見木多猶可，未三四木，勞苦之命也。見金且能照耀，不能尅濟，釵金有戌亥，箔金有寅卯，主吉。劍金為耀日月之光，必主少年登第，餘金則殃，水宜澗下，須戊午見丁丑，己未見丙子，陰陽交互，方為福貴。柱中更有木滋，生富貴雙金，大溪有乙卯，井泉有己酉，出入得門，皆吉。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>天河雨露相濟，不以就位尅論，戊午見丁未亦吉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。丙午則不明，火愛燈頭，再有別火則燥，霹靂帶雷雨，則日月無光，故主昏蒙。爐中午忌丙寅，以午為剛火，纔見丙寅，便為火生之地，若無清水解救，主犯刑凶死，丁卯稍可，土見沙中，有巽風相假，路傍城屋皆吉。柱中更有金木資助尤吉。考妙選，戊午遇卯，己未遇酉，為日月分秀格，而卯以乙卯辛卯為正，己卯丁卯次之，酉以乙酉癸酉為正，己酉丁酉次之，有日出扶桑格，即日分秀，再見巳午日時，有日輪當表格，是己未生人，柱有三四木拱集，與桂林一枝同，桂林以少為貴，芬芳以多為貴，義各有所取也。再考凶格中，太陽損明，戊午不禁於水溢，是嫌水盛，太陰薄食，己未豈堪於土多，是嫌土重也，須如是並參，方盡其理。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自病之火，其氣極微，假木相助，其氣方生，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忌甲申乙酉甲寅乙卯之水。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>自死之火，其氣極微，假木相助，其氣方生，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忌甲申乙酉甲寅乙卯之水。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河水、訥音餘木、訥音餘金、霹靂火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河水、訥音餘金、霹靂火、爐中火(丙寅)、</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大林木、松柏木、石榴木、釵釧金、金箔金、劍鋒金、澗下水(丁丑)、大溪水、井泉水、天河水(丁未)、覆燈火、沙中土、路傍土、城頭土、屋上土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>井泉水、大溪水(乙卯)、大海水、霹靂火、天河水、天上火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>訥音水、大林木、桑拓木、松柏木、平地木、井泉水、澗下水、大溪水(甲寅)、海中金(乙丑)、沙中土(有木有山)、覆燈火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>山下火者，草間熠燿，花裏熒煌，寒林綴葉之光，隔幔點衣之彩，方朔以螢火名之。故妙選有螢火照水格，遇秋生則貴為卿藍，是以此火喜水，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>地支逢亥子，或訥音水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，更遇申酉月是也。或以山下之火，最喜木與山，更得風來增輝為貴，又不以螢火論矣。大林木，有辰巳為風，桑拓木，有癸丑為山，松柏平地最吉。更得風助，主貴。若風多吹散，主夭。水愛井泉澗下，有木相資，主爵位崇顯，大海水不宜，然有山亦應貴格，寅卯為東方木旺火生之地，只甲寅水吉，乙卯為震，有風，見之不佳。若無火無山，更加霹火，主夭。天上水為驟雨，此火不宜相見，若先得山水滋助，亦無大害。命裏有金，以清秀為吉。無木多逢，以竊氣論之，乙丑為山，主貴。餘金若無尅破，遇貴人祿馬，只以財論，土見沙中，辰巳有風，若有木有山加助，主大貴，無則虛名。火忌太陽霹靂，燈頭是巽，主光顯。大都五行有火，須資木則吉。限數喜忌，俱依此斷。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大溪水(乙卯)、爐中火(風木)、山頭火、山下火、天上火、覆燈火、霹靂火、大驛土(無山)、大驛土&amp;大海水、大林木、楊柳木</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河水、澗下水(丁丑)、大海水(有山)、大海水(癸亥)、平地木(柱)&amp;屋上土、路傍土、海中金(乙丑)、金箔金、劍鋒金&amp;壁上土、桑拓木、石榴木</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>松柏木者，潑雪湊霜，參天覆地，風撼笙篁之奏，雨餘旌旆之張，此木藏居金下，位列正東，乃為極旺，最喜山為根基，水為滋潤，天河，雨露之水，可以滋潤，澗下，丁丑屬山，可為根基，丙丁不如，大溪水，有乙卯為雷，可以發榮，卻嫌風霹有損折之凶。大海水，有山則吉。癸亥，清淨無山，亦吉。若柱有平地，得屋土，則為巳成棟樑，無用山水，無此二件，乃山間之茂木也，須要山水，命中有火，最忌。爐中就位相生，再加風木，灰飛煙滅，五行無水，主夭折。山頭山下太陽覆燈，皆不可犯，寅人尤忌。戊午丙寅，以木不南奔，寅午三合火局故也。霹火雖可滋生，運加凡火，主凶。土見路傍，似無足貴。若無死木，其福還真。驛土無山，貧。更加海水尤凶。金逢乙丑，為印為山，箔金就位自旺，主吉。劍鋒能削能斵，更得壁土相成，松柏相資，主貴。大林有風，楊柳會火，二木最忌。桑拓，癸丑為山，可以相助，石榴是辛酉金，反化死木，有造化卻吉。妙選有蒼松冬秀格，是以此木生人，月日時屬三冬為貴，有日合辛卯，月值庚寅二格，雖取戊午己未，生居夏秋，然專論此二木為貴。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大海水(日時、癸亥)、大溪水(乙卯)、天河水、松柏木(辛卯)、大林木、平地木、路傍土、沙中土(丁巳)&amp;井泉水、城頭土(己卯)&amp;井泉水、劍鋒金(加水)、海中金(遇風)、白鑞金&amp;澗下水、爐中火(丁卯)、覆燈火(有風)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爐中火(丙寅)、天上火(戊午)、大海水(日時、癸亥)、大溪水(乙卯)、天河水、松柏木(辛卯)、大林木、平地木、路傍土、、沙中土(丁巳)&amp;井泉水、城頭土(己卯)&amp;井泉水、劍鋒金(加水)、海中金(遇風)、白鑞金&amp;澗下水、爐中火(丁卯)、覆燈火(有風)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爐中火(丙寅)、山下火(丙申)、天上火(日時)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爐中火(丙寅)、天上火(日時)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>霹靂火者，一數毫光，九天號令，雷掣金蛇之勢，雲驅鐵馬之奔，此火須資風水雷，方為變化。若五行得值一件，皆主亨通，如日時見大海，癸亥為引凡入聖，己丑為上，戊子次之。見大溪乙卯，為雷火變化，己丑最吉，戊子次之，辰巳有風，運中遇之尤佳。天上水名為既濟，主吉，遇之者禀性含靈，聰明特異，長流無用。澗下雖就位相尅，此神火也，不忌。有風亦顯。五行見木，辛卯有雷，大林有風，平地有天門，與此火相資，餘木無用。土見路傍，加巽則吉。沙中丁巳有風，己卯有雷，得泉助之，亦主顯貴。劍金加水，海金遇風，鑞金逢澗，皆吉。餘金無用。見爐中，丁卯為吉，戊子逢丙寅太燥，性凶，主夭。己丑見丙申，卻得，戊子忌之。燈火，東南巽地，有風最宜，戊午己未天上火，日時遇之，防刑尅。再考妙選，有烈風雷雨格，即霹靂見天河是也。有天地中分格，即戊子見戊午是也。有雷霆得門格，即戊子己丑，日時遇卯是也。三格純戊午，與前說不同。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>長流水(壬辰)、海中金、天上火、桑拓木、楊柳木、平地木、路傍土、大驛土、城頭土(己卯、資艮)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>澗下水(丁丑)&amp;天河&amp;柱中有木、長流水(壬辰)、海中金、天上火、霹靂火(柱得木火)、桑拓木、楊柳木、平地木、路傍土、大驛土、大驛土(日時、戊申)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大海水者，總納百川，汪洋無際，包括乾坤之大，升沉日月之光，此水原有清濁，以兩般分論，壬戌有土氣，為濁，癸亥干支純水，而訥音又水，故清，壬戌人嫌山，以土氣太盛，有金清之，方吉。癸亥最喜見山，然後海水之性始安，澗下，丁丑為山，天河與海，上下相通，柱中有木為槎，則乘槎入於天河，故為上格。長流大溪等水，畢竟皆歸於海，以海水不擇細流，故能成其大也，壬辰為龍歸大海，尤吉。中間又分陰陽互見，干支合化，方可，井泉則有所制，與海不通，故不喜見之。諸金獨海中第一，以壬戌癸亥，喜見甲子乙丑，砂中亦得，餘金又當以貴人祿馬參之，火喜天上，與海水相為照耀，最吉。霹靂，己丑為山，戊癸合化，柱得木火旺地亦吉。山下山頭覆燈諸火，不宜見木，惟壬子癸丑壬午癸未，俱吉。大林有風，衝動水性不安，平地厚載，則就位相得，松柏石榴，若無土制，則漂泊無定，土愛路傍大驛，惟此二土，足以振之不泄。況癸亥見戊申，為天關地軸大格，日時遇此厚土，縱有風雷，亦不為害，城頭己卯，須資艮則吉，如逢霹靂，則雷火變化，海水洶湧，亦主貧寒。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>井泉水、山下火、山頭火、覆燈火、大林木、松柏木(無土)、石榴木(無土)、霹靂火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1949,6 +2172,13 @@
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2207,10 +2437,10 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2228,7 +2458,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2240,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -2255,18 +2485,18 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="165">
       <c r="A2" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -2293,18 +2523,18 @@
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="165">
       <c r="A3" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -2331,18 +2561,18 @@
         <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45">
       <c r="A4" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
@@ -2372,7 +2602,7 @@
     </row>
     <row r="5" spans="1:12" ht="75">
       <c r="A5" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -2404,7 +2634,7 @@
     </row>
     <row r="6" spans="1:12" ht="75">
       <c r="A6" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -2437,7 +2667,7 @@
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>44</v>
@@ -2470,7 +2700,7 @@
     </row>
     <row r="8" spans="1:12" ht="120">
       <c r="A8" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -2482,7 +2712,7 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>53</v>
@@ -2497,18 +2727,18 @@
         <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="90">
       <c r="A9" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>57</v>
@@ -2520,7 +2750,7 @@
         <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>53</v>
@@ -2535,18 +2765,18 @@
         <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="90">
       <c r="A10" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>62</v>
@@ -2573,18 +2803,18 @@
         <v>69</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="90">
       <c r="A11" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>70</v>
@@ -2611,18 +2841,18 @@
         <v>74</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>75</v>
@@ -2648,7 +2878,7 @@
     </row>
     <row r="13" spans="1:12" ht="45">
       <c r="A13" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>80</v>
@@ -2674,7 +2904,7 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>83</v>
@@ -2702,7 +2932,7 @@
     </row>
     <row r="15" spans="1:12" ht="45">
       <c r="A15" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>90</v>
@@ -2728,9 +2958,9 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="45">
+    <row r="16" spans="1:12" ht="105">
       <c r="A16" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>94</v>
@@ -2756,11 +2986,19 @@
       <c r="I16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="45">
+      <c r="J16" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="105">
       <c r="A17" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>101</v>
@@ -2786,11 +3024,19 @@
       <c r="I17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="105">
       <c r="A18" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>105</v>
@@ -2817,10 +3063,10 @@
         <v>112</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>113</v>
@@ -2828,7 +3074,7 @@
     </row>
     <row r="19" spans="1:12" ht="105">
       <c r="A19" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>114</v>
@@ -2855,10 +3101,10 @@
         <v>118</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>113</v>
@@ -2866,7 +3112,7 @@
     </row>
     <row r="20" spans="1:12" ht="75">
       <c r="A20" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>119</v>
@@ -2894,12 +3140,12 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60">
       <c r="A21" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>127</v>
@@ -2927,12 +3173,12 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45">
       <c r="A22" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>131</v>
@@ -2958,7 +3204,7 @@
     </row>
     <row r="23" spans="1:12" ht="45">
       <c r="A23" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>137</v>
@@ -2984,7 +3230,7 @@
     </row>
     <row r="24" spans="1:12" ht="45">
       <c r="A24" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>140</v>
@@ -3014,7 +3260,7 @@
     </row>
     <row r="25" spans="1:12" ht="45">
       <c r="A25" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>147</v>
@@ -3049,7 +3295,7 @@
     </row>
     <row r="26" spans="1:12" ht="90">
       <c r="A26" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>154</v>
@@ -3076,18 +3322,18 @@
         <v>161</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="90">
       <c r="A27" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>162</v>
@@ -3114,18 +3360,18 @@
         <v>167</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30">
       <c r="A28" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>168</v>
@@ -3151,7 +3397,7 @@
     </row>
     <row r="29" spans="1:12" ht="45">
       <c r="A29" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>173</v>
@@ -3179,7 +3425,7 @@
     </row>
     <row r="30" spans="1:12" ht="45">
       <c r="A30" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>177</v>
@@ -3212,7 +3458,7 @@
     </row>
     <row r="31" spans="1:12" ht="45">
       <c r="A31" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>185</v>
@@ -3245,7 +3491,7 @@
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>189</v>
@@ -3275,7 +3521,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>197</v>
@@ -3305,7 +3551,7 @@
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="A34" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>201</v>
@@ -3338,7 +3584,7 @@
     </row>
     <row r="35" spans="1:12" ht="45">
       <c r="A35" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>209</v>
@@ -3369,9 +3615,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45">
+    <row r="36" spans="1:12" ht="105">
       <c r="A36" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>214</v>
@@ -3397,12 +3643,19 @@
       <c r="I36" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" ht="45">
+      <c r="J36" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="105">
       <c r="A37" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>221</v>
@@ -3428,12 +3681,19 @@
       <c r="I37" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" ht="30">
+      <c r="J37" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="120">
       <c r="A38" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>224</v>
@@ -3459,11 +3719,19 @@
       <c r="I38" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="30">
+      <c r="J38" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="135">
       <c r="A39" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>231</v>
@@ -3490,18 +3758,24 @@
         <v>235</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>236</v>
+        <v>488</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="120">
       <c r="A40" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>164</v>
@@ -3510,373 +3784,407 @@
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="J40" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="120">
       <c r="A41" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="105">
       <c r="A42" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="105">
       <c r="A43" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="135">
+      <c r="A44" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30">
-      <c r="A44" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="135">
+      <c r="A45" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="30">
-      <c r="A45" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="90">
+      <c r="A46" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="30">
-      <c r="A46" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>198</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="J46" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="90">
+      <c r="A47" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="C47" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="E47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2" t="s">
+      <c r="H47" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="30">
-      <c r="A47" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="K47" s="2" t="s">
-        <v>273</v>
+        <v>481</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="90">
       <c r="A48" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="J48" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="90">
       <c r="A49" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>289</v>
+        <v>468</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="60">
       <c r="A50" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="60">
       <c r="A51" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>36</v>
@@ -3885,207 +4193,207 @@
         <v>96</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="120">
       <c r="A52" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>232</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="105">
       <c r="A53" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="105">
       <c r="A54" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="105">
       <c r="A55" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="135">
       <c r="A56" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="135">
       <c r="A57" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>36</v>
@@ -4094,154 +4402,154 @@
         <v>133</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="60">
       <c r="A60" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="30">
       <c r="A61" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="I61" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">

--- a/三命通會.xlsx
+++ b/三命通會.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F429457E-E77E-4761-89AB-83F3C5AEFA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C493D0-BE13-49C1-993F-9C61C74C4D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="503">
   <si>
     <t>天干地支</t>
   </si>
@@ -2097,6 +2097,34 @@
   </si>
   <si>
     <t>井泉水、山下火、山頭火、覆燈火、大林木、松柏木(無土)、石榴木(無土)、霹靂火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金箔金者，潤色盃盤，增光宮室，打薄須藉乎別金，描彩必假乎水力，此金甚微，非木則無所依，木以平地為上，有此不宜見火，有火主夭，遇太陽為日間之顯，二火相反，不宜同見，山下山頭，有清水助之亦吉。惟忌爐火，就位相尅，此金體薄，不能反源，定夭，限運同論。井泉澗下天河水清，日時喜見，須月令有木方吉，溪流大海水濁，見溪流主漂蕩，見大海無木為基，主兇殘。金遇劍鋒釵釧，可以裝飾，有輔成造化之理，故喜見。砂海白鑞無益，有火濟之亦吉，無則終凶。城頭壁上二土，有靠安身，城頭多主寄人，壁上加木則貴，再遇燈火，輝光照耀，主權貴。丙戌土中藏火，干支卻不宜太炎，亦為貴格。考妙選，金命而遇戊寅，崑山片玉格也，癸卯而遇己卯，玉免東升格也，與前海金同。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>井泉水(日時/月令木)、澗下水(日時/月令木)、天河水(日時/月令木)、劍鋒金、釵釧金、砂中金(有火)、海中金(有火)、白鑞金(有火)、壁上土(加木)、壁上土(加木)&amp;覆燈火、屋上土、城頭土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爐中火、大溪水、大海水、砂中金(無火)、海中金(無火)、白鑞金(無火)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天上火、路傍土(柱)、壁上土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>長流水(癸巳)、大海水(癸亥)、大溪水(乙卯)、井泉水(己酉)、霹靂火、爐中火、覆燈火、山頭火、石榴木、楊柳木、大林木、平地木、 松柏木、沙中土、屋上土、釵釧金(辛亥)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>長流水(壬辰)、大海水(壬戌)、大溪水(乙卯)、井泉水(己酉)、霹靂火、爐中火、覆燈火、山頭火、石榴木、楊柳木、大林木、平地木、 松柏木、沙中土、屋上土、釵釧金(辛亥)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天河水者，亂灑六野，密沛千郊，淋淋瀉下銀河，細細飛來碧落，此乃天上雨露，發生萬物，無不賴之，銀漢之水，土不能尅，故見土不忌，而且有滋潤之益，天上之水，地金難生，故見金難益，而亦有涵秀之情，生旺太過，則為淫潦，反傷於物，死絕太多，則為旱乾，又不能生物，要生三秋，得時為貴也。水喜長流大海，內丙午宜癸巳癸亥，丁未宜壬辰壬戌，陰陽互見尤吉。大溪乙卯為雷，井泉己酉為貴，俱以吉論。火喜霹靂。為神龍之火，與此水相濟，而倏忽變化，雲行雨施，豈有不貴。爐中火旺，大海水旺，如柱中得二火二水，上下相濟，謂之精神俱足，大貴格也。燈頭有風，山頭有貴，皆以吉論。又須以別水濟之，方吉。天上，就位相尅，則忌見之，木，石榴楊柳俱吉。大林有巽，平地有亥，亦吉。松柏石榴，遇丙辛合化，亦以吉論。妙選有靈槎入天河格，是取死絕無根之木，柱無土培，則漂流天河是也，土雖不能尅，而柱逢庚午辛未，就位相尅，土雍水滯，或水又冬生，則水結池塘，必主濁濫，餘土如沙中屋上皆吉。城頭大驛無用，壁上地支對衝，亦壞造化，水金雖不能生，獨辛亥釵金，卻屬乾天，水在天上，只此最吉。餘金亦取天干有庚辛壬癸者為用，甲乙無益，再以祿馬貴人參之，始得，妙選又以水生人，得庚子壬子，為雲騰雨施，生春則旱，夏則潦，冬則寒，獨三秋最吉。遇甲辰乙巳庚辰辛巳，柱中有壬為雲，有辰為龍，為風雨作霖，若生冬月，是為霜凝薄露，日時喜遇寅卯，溫和之氣，可解斯凍，俱貴格也。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2201,7 +2229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2219,6 +2247,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2437,10 +2468,10 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2570,7 +2601,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45">
+    <row r="4" spans="1:12" ht="105">
       <c r="A4" s="10" t="s">
         <v>458</v>
       </c>
@@ -2598,9 +2629,17 @@
       <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="75">
+      <c r="J4" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="105">
       <c r="A5" s="10" t="s">
         <v>459</v>
       </c>
@@ -2628,8 +2667,14 @@
       <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>34</v>
+      <c r="J5" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75">
@@ -3489,7 +3534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30">
+    <row r="32" spans="1:12" ht="150">
       <c r="A32" s="10" t="s">
         <v>462</v>
       </c>
@@ -3517,9 +3562,17 @@
       <c r="I32" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="30">
+      <c r="J32" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="150">
       <c r="A33" s="10" t="s">
         <v>463</v>
       </c>
@@ -3547,7 +3600,15 @@
       <c r="I33" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="A34" s="10" t="s">
